--- a/10v15/11/USQ-Cup/TEXAS_UMD.xlsx
+++ b/10v15/11/USQ-Cup/TEXAS_UMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\11\USQ-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923AC4BB-DF3D-40CE-992A-E3799E67552D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1954C2D8-71A3-47E6-897D-16264A2C358A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
   <si>
     <t>A</t>
   </si>
@@ -211,6 +211,147 @@
   </si>
   <si>
     <t>VANESSA BARKER</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0322</t>
+  </si>
+  <si>
+    <t>0346</t>
+  </si>
+  <si>
+    <t>0428</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
+    <t>0600</t>
+  </si>
+  <si>
+    <t>0656</t>
+  </si>
+  <si>
+    <t>0740</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>0836</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0945</t>
+  </si>
+  <si>
+    <t>0850</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>2352</t>
+  </si>
+  <si>
+    <t>2455</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>2546</t>
+  </si>
+  <si>
+    <t>2617</t>
+  </si>
+  <si>
+    <t>2620</t>
+  </si>
+  <si>
+    <t>NATHAN ABBOTT</t>
   </si>
 </sst>
 </file>
@@ -546,10 +687,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,7 +915,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -852,13 +993,13 @@
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="31"/>
-      <c r="O2" s="36" t="str">
+      <c r="O2" s="35" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v/>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="31"/>
-      <c r="R2" s="35" t="str">
+      <c r="R2" s="36" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>160</v>
       </c>
@@ -923,13 +1064,13 @@
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="31"/>
-      <c r="O4" s="36" t="str">
+      <c r="O4" s="35" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v>*</v>
       </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="31"/>
-      <c r="R4" s="35" t="str">
+      <c r="R4" s="36" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>80*</v>
       </c>
@@ -1003,42 +1144,58 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1051,13 +1208,13 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E8" s="10">
         <v>41</v>
       </c>
-      <c r="F8" s="11">
-        <v>10</v>
+      <c r="F8" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>10</v>
@@ -1149,48 +1306,64 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="P10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1301,42 +1474,58 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1443,44 +1632,60 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G16" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="15"/>
+      <c r="O16" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="18"/>
+      <c r="R16" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1536,8 +1741,8 @@
       <c r="Q17" s="20">
         <v>4</v>
       </c>
-      <c r="R17" s="21" t="s">
-        <v>49</v>
+      <c r="R17" s="21">
+        <v>21</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>8</v>
@@ -1549,8 +1754,8 @@
       <c r="V17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="10" t="s">
-        <v>49</v>
+      <c r="W17" s="10">
+        <v>4</v>
       </c>
       <c r="X17" s="11"/>
       <c r="Y17" s="1"/>
@@ -1591,44 +1796,60 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="J19" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="18"/>
+      <c r="R19" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1673,10 +1894,10 @@
         <v>54</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R20" s="21">
         <v>22</v>
@@ -1733,17 +1954,23 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>2</v>
@@ -29398,7 +29625,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29512,6 +29739,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="22"/>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
